--- a/IDs.xlsx
+++ b/IDs.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.nady\Desktop\Files\career\Liptis\webscrapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.nady\Desktop\Files\career\Liptis\python projects\listmanag_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55B4089-7832-4F10-A4D5-33217BF312B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6A4674-0FAE-441F-82D6-372A644FC65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WlfRDGG7K0IaiKcIM0Qcugq8iMvMXvr1VuYGFjeCWSkbiHqrBPrjIq0iMwWRYNvrtgVcSi8wOT2qImt+dUGeew==" workbookSaltValue="bD98c5LW/ZHIwZQEeSH6sw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Act_Deact" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -173,13 +173,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -187,35 +184,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F2"/>
-          <bgColor rgb="FFD9E1F2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -235,54 +203,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="10"/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -460,6 +380,83 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E1F2"/>
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -474,32 +471,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C122" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C122" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:C122" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ActiveMRList" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="InactiveMRList" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ActiveCrmList" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ActiveMRList" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="InactiveMRList" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ActiveCrmList" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:A2" insertRow="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:A2" insertRow="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="A1:A2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ENTER IDs HERE" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ENTER IDs HERE" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:A2" insertRow="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:A2" insertRow="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
   <autoFilter ref="A1:A2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ENTER IDs HERE" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ENTER IDs HERE" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +793,7 @@
         <v>4838</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>5065</v>
       </c>
     </row>
@@ -805,7 +802,7 @@
         <v>4982</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>14137</v>
       </c>
     </row>
@@ -814,7 +811,7 @@
         <v>4879</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>5068</v>
       </c>
     </row>
@@ -823,7 +820,7 @@
         <v>5031</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>4838</v>
       </c>
     </row>
@@ -832,7 +829,7 @@
         <v>5070</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>5229</v>
       </c>
     </row>
@@ -841,7 +838,7 @@
         <v>4895</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>4982</v>
       </c>
     </row>
@@ -850,7 +847,7 @@
         <v>5035</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>4880</v>
       </c>
     </row>
@@ -859,7 +856,7 @@
         <v>9074</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>5230</v>
       </c>
     </row>
@@ -868,7 +865,7 @@
         <v>4960</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>5070</v>
       </c>
     </row>
@@ -877,7 +874,7 @@
         <v>4984</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>9075</v>
       </c>
     </row>
@@ -886,7 +883,7 @@
         <v>4985</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -895,7 +892,7 @@
         <v>4839</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>5073</v>
       </c>
     </row>
@@ -904,7 +901,7 @@
         <v>9080</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>5048</v>
       </c>
     </row>
@@ -913,7 +910,7 @@
         <v>4912</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>5043</v>
       </c>
     </row>
@@ -922,7 +919,7 @@
         <v>9069</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>5277</v>
       </c>
     </row>
@@ -931,7 +928,7 @@
         <v>4883</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>5242</v>
       </c>
     </row>
@@ -940,7 +937,7 @@
         <v>4917</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>5220</v>
       </c>
     </row>
@@ -949,7 +946,7 @@
         <v>17944</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <v>5221</v>
       </c>
     </row>
@@ -958,7 +955,7 @@
         <v>5000</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>22243</v>
       </c>
     </row>
@@ -967,7 +964,7 @@
         <v>4844</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>5077</v>
       </c>
     </row>
@@ -976,7 +973,7 @@
         <v>5002</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>5079</v>
       </c>
     </row>
@@ -985,7 +982,7 @@
         <v>4861</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>5038</v>
       </c>
     </row>
@@ -994,7 +991,7 @@
         <v>4885</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="7">
+      <c r="C24" s="3">
         <v>5231</v>
       </c>
     </row>
@@ -1003,7 +1000,7 @@
         <v>4846</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="7">
+      <c r="C25" s="3">
         <v>21655</v>
       </c>
     </row>
@@ -1012,7 +1009,7 @@
         <v>4863</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="7">
+      <c r="C26" s="3">
         <v>5232</v>
       </c>
     </row>
@@ -1021,7 +1018,7 @@
         <v>5003</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="7">
+      <c r="C27" s="3">
         <v>22289</v>
       </c>
     </row>
@@ -1030,7 +1027,7 @@
         <v>4973</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="7">
+      <c r="C28" s="3">
         <v>5217</v>
       </c>
     </row>
@@ -1039,7 +1036,7 @@
         <v>5119</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="7">
+      <c r="C29" s="3">
         <v>19897</v>
       </c>
     </row>
@@ -1048,7 +1045,7 @@
         <v>20339</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="7">
+      <c r="C30" s="3">
         <v>5085</v>
       </c>
     </row>
@@ -1057,7 +1054,7 @@
         <v>18824</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="7">
+      <c r="C31" s="3">
         <v>4961</v>
       </c>
     </row>
@@ -1066,7 +1063,7 @@
         <v>21019</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="7">
+      <c r="C32" s="3">
         <v>22296</v>
       </c>
     </row>
@@ -1075,7 +1072,7 @@
         <v>4867</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="7">
+      <c r="C33" s="3">
         <v>5086</v>
       </c>
     </row>
@@ -1084,7 +1081,7 @@
         <v>5012</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="7">
+      <c r="C34" s="3">
         <v>5087</v>
       </c>
     </row>
@@ -1093,7 +1090,7 @@
         <v>4945</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="7">
+      <c r="C35" s="3">
         <v>4882</v>
       </c>
     </row>
@@ -1102,7 +1099,7 @@
         <v>4847</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="7">
+      <c r="C36" s="3">
         <v>5158</v>
       </c>
     </row>
@@ -1111,7 +1108,7 @@
         <v>5014</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="7">
+      <c r="C37" s="3">
         <v>5089</v>
       </c>
     </row>
@@ -1120,7 +1117,7 @@
         <v>4978</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="7">
+      <c r="C38" s="3">
         <v>5279</v>
       </c>
     </row>
@@ -1129,7 +1126,7 @@
         <v>5017</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="7">
+      <c r="C39" s="3">
         <v>18876</v>
       </c>
     </row>
@@ -1138,7 +1135,7 @@
         <v>4869</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="7">
+      <c r="C40" s="3">
         <v>5090</v>
       </c>
     </row>
@@ -1147,7 +1144,7 @@
         <v>4954</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="7">
+      <c r="C41" s="3">
         <v>13475</v>
       </c>
     </row>
@@ -1156,7 +1153,7 @@
         <v>4848</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="7">
+      <c r="C42" s="3">
         <v>21658</v>
       </c>
     </row>
@@ -1165,7 +1162,7 @@
         <v>4976</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="7">
+      <c r="C43" s="3">
         <v>23444</v>
       </c>
     </row>
@@ -1174,7 +1171,7 @@
         <v>4875</v>
       </c>
       <c r="B44" s="6"/>
-      <c r="C44" s="7">
+      <c r="C44" s="3">
         <v>4883</v>
       </c>
     </row>
@@ -1183,7 +1180,7 @@
         <v>18805</v>
       </c>
       <c r="B45" s="6"/>
-      <c r="C45" s="7">
+      <c r="C45" s="3">
         <v>5210</v>
       </c>
     </row>
@@ -1192,7 +1189,7 @@
         <v>4877</v>
       </c>
       <c r="B46" s="6"/>
-      <c r="C46" s="7">
+      <c r="C46" s="3">
         <v>5095</v>
       </c>
     </row>
@@ -1201,7 +1198,7 @@
         <v>22043</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="C47" s="7">
+      <c r="C47" s="3">
         <v>5096</v>
       </c>
     </row>
@@ -1210,7 +1207,7 @@
         <v>18825</v>
       </c>
       <c r="B48" s="6"/>
-      <c r="C48" s="7">
+      <c r="C48" s="3">
         <v>22290</v>
       </c>
     </row>
@@ -1219,7 +1216,7 @@
         <v>4898</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="7">
+      <c r="C49" s="3">
         <v>5253</v>
       </c>
     </row>
@@ -1228,7 +1225,7 @@
         <v>19672</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="C50" s="7">
+      <c r="C50" s="3">
         <v>5141</v>
       </c>
     </row>
@@ -1237,7 +1234,7 @@
         <v>4858</v>
       </c>
       <c r="B51" s="6"/>
-      <c r="C51" s="7">
+      <c r="C51" s="3">
         <v>5102</v>
       </c>
     </row>
@@ -1246,7 +1243,7 @@
         <v>19664</v>
       </c>
       <c r="B52" s="6"/>
-      <c r="C52" s="7">
+      <c r="C52" s="3">
         <v>17826</v>
       </c>
     </row>
@@ -1255,7 +1252,7 @@
         <v>23923</v>
       </c>
       <c r="B53" s="6"/>
-      <c r="C53" s="7">
+      <c r="C53" s="3">
         <v>5142</v>
       </c>
     </row>
@@ -1264,7 +1261,7 @@
         <v>4905</v>
       </c>
       <c r="B54" s="6"/>
-      <c r="C54" s="7">
+      <c r="C54" s="3">
         <v>17937</v>
       </c>
     </row>
@@ -1273,7 +1270,7 @@
         <v>4859</v>
       </c>
       <c r="B55" s="6"/>
-      <c r="C55" s="7">
+      <c r="C55" s="3">
         <v>22288</v>
       </c>
     </row>
@@ -1282,7 +1279,7 @@
         <v>4909</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="7">
+      <c r="C56" s="3">
         <v>21656</v>
       </c>
     </row>
@@ -1291,7 +1288,7 @@
         <v>25174</v>
       </c>
       <c r="B57" s="6"/>
-      <c r="C57" s="7">
+      <c r="C57" s="3">
         <v>5108</v>
       </c>
     </row>
@@ -1300,7 +1297,7 @@
         <v>25137</v>
       </c>
       <c r="B58" s="6"/>
-      <c r="C58" s="7">
+      <c r="C58" s="3">
         <v>5214</v>
       </c>
     </row>
@@ -1309,7 +1306,7 @@
         <v>20338</v>
       </c>
       <c r="B59" s="6"/>
-      <c r="C59" s="7">
+      <c r="C59" s="3">
         <v>5143</v>
       </c>
     </row>
@@ -1318,7 +1315,7 @@
         <v>19661</v>
       </c>
       <c r="B60" s="6"/>
-      <c r="C60" s="7">
+      <c r="C60" s="3">
         <v>4861</v>
       </c>
     </row>
@@ -1327,7 +1324,7 @@
         <v>25173</v>
       </c>
       <c r="B61" s="6"/>
-      <c r="C61" s="7">
+      <c r="C61" s="3">
         <v>23448</v>
       </c>
     </row>
@@ -1336,7 +1333,7 @@
         <v>4874</v>
       </c>
       <c r="B62" s="6"/>
-      <c r="C62" s="7">
+      <c r="C62" s="3">
         <v>19381</v>
       </c>
     </row>
@@ -1345,7 +1342,7 @@
         <v>4957</v>
       </c>
       <c r="B63" s="6"/>
-      <c r="C63" s="7">
+      <c r="C63" s="3">
         <v>17827</v>
       </c>
     </row>
@@ -1354,7 +1351,7 @@
         <v>21712</v>
       </c>
       <c r="B64" s="6"/>
-      <c r="C64" s="7">
+      <c r="C64" s="3">
         <v>23557</v>
       </c>
     </row>
@@ -1363,7 +1360,7 @@
         <v>5008</v>
       </c>
       <c r="B65" s="6"/>
-      <c r="C65" s="7">
+      <c r="C65" s="3">
         <v>7022</v>
       </c>
     </row>
@@ -1372,7 +1369,7 @@
         <v>5010</v>
       </c>
       <c r="B66" s="6"/>
-      <c r="C66" s="7">
+      <c r="C66" s="3">
         <v>4979</v>
       </c>
     </row>
@@ -1381,7 +1378,7 @@
         <v>25268</v>
       </c>
       <c r="B67" s="6"/>
-      <c r="C67" s="7">
+      <c r="C67" s="3">
         <v>5218</v>
       </c>
     </row>
@@ -1390,7 +1387,7 @@
         <v>5153</v>
       </c>
       <c r="B68" s="6"/>
-      <c r="C68" s="7">
+      <c r="C68" s="3">
         <v>5224</v>
       </c>
     </row>
@@ -1399,7 +1396,7 @@
         <v>5177</v>
       </c>
       <c r="B69" s="6"/>
-      <c r="C69" s="7">
+      <c r="C69" s="3">
         <v>21657</v>
       </c>
     </row>
@@ -1408,7 +1405,7 @@
         <v>5170</v>
       </c>
       <c r="B70" s="6"/>
-      <c r="C70" s="7">
+      <c r="C70" s="3">
         <v>1849</v>
       </c>
     </row>
@@ -1417,7 +1414,7 @@
         <v>20373</v>
       </c>
       <c r="B71" s="6"/>
-      <c r="C71" s="7">
+      <c r="C71" s="3">
         <v>23550</v>
       </c>
     </row>
@@ -1426,7 +1423,7 @@
         <v>19905</v>
       </c>
       <c r="B72" s="6"/>
-      <c r="C72" s="7">
+      <c r="C72" s="3">
         <v>1720</v>
       </c>
     </row>
@@ -1435,357 +1432,357 @@
         <v>5205</v>
       </c>
       <c r="B73" s="6"/>
-      <c r="C73" s="7">
+      <c r="C73" s="3">
         <v>22297</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="6"/>
-      <c r="C74" s="7">
+      <c r="C74" s="3">
         <v>5149</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="7">
+      <c r="C75" s="3">
         <v>5118</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="7">
+      <c r="C76" s="3">
         <v>5119</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="7">
+      <c r="C77" s="3">
         <v>19383</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="7"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="7">
+      <c r="C78" s="3">
         <v>22295</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="7"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="7">
+      <c r="C79" s="3">
         <v>5215</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="7"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="7">
+      <c r="C80" s="3">
         <v>5288</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="7"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="7">
+      <c r="C81" s="3">
         <v>4853</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="7">
+      <c r="C82" s="3">
         <v>21661</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="7">
+      <c r="C83" s="3">
         <v>5165</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="7">
+      <c r="C84" s="3">
         <v>19379</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="7">
+      <c r="C85" s="3">
         <v>5124</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="7"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="7">
+      <c r="C86" s="3">
         <v>4974</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="7"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="7">
+      <c r="C87" s="3">
         <v>2040</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
+      <c r="A88" s="7"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="7">
+      <c r="C88" s="3">
         <v>14448</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="7">
+      <c r="C89" s="3">
         <v>18735</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="7">
+      <c r="C90" s="3">
         <v>4977</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="7"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="7">
+      <c r="C91" s="3">
         <v>4978</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="7">
+      <c r="C92" s="3">
         <v>5234</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
+      <c r="A93" s="7"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="7">
+      <c r="C93" s="3">
         <v>14218</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+      <c r="A94" s="7"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="7">
+      <c r="C94" s="3">
         <v>19900</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="7">
+      <c r="C95" s="3">
         <v>4869</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
+      <c r="A96" s="7"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="7">
+      <c r="C96" s="3">
         <v>5126</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
+      <c r="A97" s="7"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="7">
+      <c r="C97" s="3">
         <v>3506</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="7">
+      <c r="C98" s="3">
         <v>13706</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="7"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="7">
+      <c r="C99" s="3">
         <v>5235</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
+      <c r="A100" s="7"/>
       <c r="B100" s="6"/>
-      <c r="C100" s="7">
+      <c r="C100" s="3">
         <v>5167</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
+      <c r="A101" s="7"/>
       <c r="B101" s="6"/>
-      <c r="C101" s="7">
+      <c r="C101" s="3">
         <v>4068</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="7"/>
       <c r="B102" s="6"/>
-      <c r="C102" s="7">
+      <c r="C102" s="3">
         <v>5216</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="7"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="7">
+      <c r="C103" s="3">
         <v>5132</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="A104" s="7"/>
       <c r="B104" s="6"/>
-      <c r="C104" s="7">
+      <c r="C104" s="3">
         <v>5133</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
+      <c r="A105" s="7"/>
       <c r="B105" s="6"/>
-      <c r="C105" s="7">
+      <c r="C105" s="3">
         <v>5219</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
+      <c r="A106" s="7"/>
       <c r="B106" s="6"/>
-      <c r="C106" s="7">
+      <c r="C106" s="3">
         <v>5228</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="6"/>
-      <c r="C107" s="7">
+      <c r="C107" s="3">
         <v>5170</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="6"/>
-      <c r="C108" s="7">
+      <c r="C108" s="3">
         <v>5042</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="6"/>
-      <c r="C109" s="7">
+      <c r="C109" s="3">
         <v>5289</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="6"/>
-      <c r="C110" s="7">
+      <c r="C110" s="3">
         <v>5168</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="7"/>
       <c r="B111" s="6"/>
-      <c r="C111" s="7">
+      <c r="C111" s="3">
         <v>5135</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="6"/>
-      <c r="C112" s="7">
+      <c r="C112" s="3">
         <v>5136</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
+      <c r="A113" s="7"/>
       <c r="B113" s="6"/>
-      <c r="C113" s="7">
+      <c r="C113" s="3">
         <v>23929</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
+      <c r="A114" s="7"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="7">
+      <c r="C114" s="3">
         <v>21660</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
+      <c r="A115" s="7"/>
       <c r="B115" s="6"/>
-      <c r="C115" s="7">
+      <c r="C115" s="3">
         <v>5237</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
+      <c r="A116" s="7"/>
       <c r="B116" s="6"/>
-      <c r="C116" s="7">
+      <c r="C116" s="3">
         <v>5022</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
+      <c r="A117" s="7"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="7">
+      <c r="C117" s="3">
         <v>5148</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
+      <c r="A118" s="7"/>
       <c r="B118" s="6"/>
-      <c r="C118" s="7">
+      <c r="C118" s="3">
         <v>5138</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
+      <c r="A119" s="7"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="7">
+      <c r="C119" s="3">
         <v>5046</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
+      <c r="A120" s="7"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="7">
+      <c r="C120" s="3">
         <v>5139</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
+      <c r="A121" s="7"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="7">
+      <c r="C121" s="3">
         <v>22293</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
+      <c r="A122" s="7"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="7">
+      <c r="C122" s="3">
         <v>4877</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576 A1:A1048576">
-    <cfRule type="uniqueValues" dxfId="2" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1799,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1844,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
